--- a/wdc_libs/parsers/wdc-timeline/timeline5.33.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.33.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>key</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>Key Actions for Humans Development</t>
+  </si>
+  <si>
+    <t>dataset.id</t>
+  </si>
+  <si>
+    <t>00bb4810-aff9-11e6-bf26-9bee11936d1b</t>
   </si>
 </sst>
 </file>
@@ -667,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,73 +718,81 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
